--- a/Result_files/V3_Bids_2021-08-16_2021-08-22.xlsx
+++ b/Result_files/V3_Bids_2021-08-16_2021-08-22.xlsx
@@ -548,19 +548,19 @@
         <v>0.26</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>44.24899999999997</v>
       </c>
       <c r="H2" t="n">
-        <v>47.8</v>
+        <v>45.8</v>
       </c>
       <c r="I2" t="n">
         <v>41.45400000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-1330.952947863464</v>
+        <v>-1151.152996166662</v>
       </c>
       <c r="K2" t="n">
         <v>65.29998999999999</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4829.790890744924</v>
+        <v>4829.790890744925</v>
       </c>
       <c r="K3" t="n">
         <v>63.5</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4720.336291113491</v>
+        <v>4720.336291113492</v>
       </c>
       <c r="K4" t="n">
         <v>62.970001</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
         <v>49.8</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>45.73999999999999</v>
+        <v>52.206</v>
       </c>
       <c r="J7" t="n">
-        <v>2120.549087324789</v>
+        <v>2519.967753931212</v>
       </c>
       <c r="K7" t="n">
         <v>66.449997</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -884,19 +884,19 @@
         <v>0.26</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>49.98099999999999</v>
+        <v>50.039</v>
       </c>
       <c r="H8" t="n">
-        <v>40.8</v>
+        <v>49.8</v>
       </c>
       <c r="I8" t="n">
         <v>45.57900000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>-2377.486728479998</v>
+        <v>-2188.921030476399</v>
       </c>
       <c r="K8" t="n">
         <v>81.43000000000001</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>45.57900000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>-4953.08044787598</v>
+        <v>-3388.768950249574</v>
       </c>
       <c r="K9" t="n">
         <v>90</v>
@@ -984,10 +984,10 @@
         <v>44424.33333333334</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>69.23999999999999</v>
+        <v>64</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -999,16 +999,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>49.92200000000001</v>
+        <v>49.931</v>
       </c>
       <c r="H10" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="I10" t="n">
         <v>45.57900000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>-5725.866881443544</v>
+        <v>-4566.158433605374</v>
       </c>
       <c r="K10" t="n">
         <v>94.980003</v>
@@ -1040,10 +1040,10 @@
         <v>44424.375</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>69.23999999999999</v>
+        <v>64</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1052,19 +1052,19 @@
         <v>0.26</v>
       </c>
       <c r="F11" t="n">
-        <v>49.8</v>
+        <v>43.7</v>
       </c>
       <c r="G11" t="n">
         <v>44.59399999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>41.508</v>
+        <v>41.375</v>
       </c>
       <c r="J11" t="n">
-        <v>-2392.378640086984</v>
+        <v>-2303.42006025</v>
       </c>
       <c r="K11" t="n">
         <v>86.129997</v>
@@ -1096,10 +1096,10 @@
         <v>44424.41666666666</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>69.23999999999999</v>
+        <v>64</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0.26</v>
       </c>
       <c r="F12" t="n">
-        <v>49.8</v>
+        <v>30.1</v>
       </c>
       <c r="G12" t="n">
         <v>44.59399999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="I12" t="n">
-        <v>41.508</v>
+        <v>41.375</v>
       </c>
       <c r="J12" t="n">
-        <v>-8257.366878568278</v>
+        <v>-2250.516583849998</v>
       </c>
       <c r="K12" t="n">
         <v>77.519997</v>
@@ -1152,13 +1152,13 @@
         <v>44424.45833333334</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>69.23999999999999</v>
+        <v>64</v>
       </c>
       <c r="D13" t="n">
-        <v>49.8</v>
+        <v>38.5</v>
       </c>
       <c r="E13" t="n">
         <v>0.2</v>
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-3056.838872606185</v>
+        <v>-80.93828550000018</v>
       </c>
       <c r="K13" t="n">
         <v>69.80002</v>
@@ -1208,13 +1208,13 @@
         <v>44424.5</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="E14" t="n">
         <v>0.2</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1551.0370089015</v>
+        <v>-1023.711443544394</v>
       </c>
       <c r="K14" t="n">
         <v>64.739998</v>
@@ -1264,10 +1264,10 @@
         <v>44424.54166666666</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0.26</v>
       </c>
       <c r="F15" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G15" t="n">
         <v>43.2709999999999</v>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>40.773</v>
+        <v>45.899</v>
       </c>
       <c r="J15" t="n">
-        <v>-921.6112691706112</v>
+        <v>748.0676750098595</v>
       </c>
       <c r="K15" t="n">
         <v>59.150002</v>
@@ -1320,10 +1320,10 @@
         <v>44424.58333333334</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0.26</v>
       </c>
       <c r="F16" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G16" t="n">
         <v>43.2709999999999</v>
@@ -1344,7 +1344,7 @@
         <v>40.773</v>
       </c>
       <c r="J16" t="n">
-        <v>-449.1535672952396</v>
+        <v>-714.4381529799747</v>
       </c>
       <c r="K16" t="n">
         <v>54.639999</v>
@@ -1376,10 +1376,10 @@
         <v>44424.625</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0.26</v>
       </c>
       <c r="F17" t="n">
-        <v>49.8</v>
+        <v>47.8</v>
       </c>
       <c r="G17" t="n">
         <v>43.2709999999999</v>
@@ -1400,7 +1400,7 @@
         <v>40.773</v>
       </c>
       <c r="J17" t="n">
-        <v>-2400.92098393848</v>
+        <v>438.1331675528216</v>
       </c>
       <c r="K17" t="n">
         <v>55.279999</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>63.04</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1453,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>41.118</v>
+        <v>45.994</v>
       </c>
       <c r="J18" t="n">
-        <v>-5520.690985393648</v>
+        <v>1856.457370333201</v>
       </c>
       <c r="K18" t="n">
         <v>58.93</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>63.04</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>41.118</v>
       </c>
       <c r="J19" t="n">
-        <v>-933.2129740562115</v>
+        <v>2848.262677097002</v>
       </c>
       <c r="K19" t="n">
         <v>65.209999</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>63.04</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>0.26</v>
       </c>
       <c r="F20" t="n">
-        <v>19.3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>43.2709999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>30.5</v>
+        <v>49.8</v>
       </c>
       <c r="I20" t="n">
         <v>39.98699999999991</v>
       </c>
       <c r="J20" t="n">
-        <v>-2160.252988393349</v>
+        <v>-1242.013944839914</v>
       </c>
       <c r="K20" t="n">
         <v>76.89995999999999</v>
@@ -1603,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>63.04</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>47.048</v>
+        <v>43.2709999999999</v>
       </c>
       <c r="H21" t="n">
         <v>49.8</v>
@@ -1624,7 +1624,7 @@
         <v>40.178</v>
       </c>
       <c r="J21" t="n">
-        <v>-1580.416952901732</v>
+        <v>-1166.362444844152</v>
       </c>
       <c r="K21" t="n">
         <v>82.959999</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.27</v>
+        <v>0.2000000000000455</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>40.178</v>
       </c>
       <c r="J22" t="n">
-        <v>-1102.188393484759</v>
+        <v>-1102.188393484757</v>
       </c>
       <c r="K22" t="n">
         <v>84.269997</v>
@@ -1721,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.27</v>
+        <v>0.2000000000000455</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>46.984</v>
+        <v>46.99</v>
       </c>
       <c r="H23" t="n">
         <v>49.8</v>
@@ -1736,7 +1736,7 @@
         <v>41.11799999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>-1226.1596602749</v>
+        <v>-1226.159660274904</v>
       </c>
       <c r="K23" t="n">
         <v>64.56999999999999</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>47.65</v>
+        <v>47.656</v>
       </c>
       <c r="H24" t="n">
         <v>49.8</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>47.65</v>
+        <v>47.656</v>
       </c>
       <c r="H25" t="n">
         <v>49.8</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>754.1343650051674</v>
+        <v>754.1343650051675</v>
       </c>
       <c r="K27" t="n">
         <v>62.23</v>
@@ -1998,7 +1998,7 @@
         <v>59.2</v>
       </c>
       <c r="D28" t="n">
-        <v>41.3</v>
+        <v>47.8</v>
       </c>
       <c r="E28" t="n">
         <v>0.2000000000000002</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>4435.400927745801</v>
+        <v>5018.779602507793</v>
       </c>
       <c r="K28" t="n">
         <v>62.139999</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4918.372279583341</v>
+        <v>4918.372279583337</v>
       </c>
       <c r="K29" t="n">
         <v>62.130001</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>65</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D30" t="n">
         <v>49.8</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>65</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2181,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>45.73999999999999</v>
+        <v>52.224</v>
       </c>
       <c r="J31" t="n">
-        <v>2404.569879658494</v>
+        <v>2436.73208920169</v>
       </c>
       <c r="K31" t="n">
         <v>61.790001</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>65</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2228,19 +2228,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F32" t="n">
-        <v>6.800000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="G32" t="n">
         <v>49.98099999999999</v>
       </c>
       <c r="H32" t="n">
-        <v>43</v>
+        <v>36.1</v>
       </c>
       <c r="I32" t="n">
         <v>45.57900000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>-2369.353695339999</v>
+        <v>-2384.306468661402</v>
       </c>
       <c r="K32" t="n">
         <v>61.509998</v>
@@ -2275,28 +2275,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>65</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F33" t="n">
-        <v>14.5</v>
+        <v>49.8</v>
       </c>
       <c r="G33" t="n">
         <v>49.98099999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>35.3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>45.57900000000001</v>
+        <v>52.224</v>
       </c>
       <c r="J33" t="n">
-        <v>-2390.690537525689</v>
+        <v>-3484.828252764193</v>
       </c>
       <c r="K33" t="n">
         <v>74.639999</v>
@@ -2340,19 +2340,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G34" t="n">
-        <v>49.902</v>
+        <v>49.87399999999997</v>
       </c>
       <c r="H34" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>45.57900000000001</v>
+        <v>51.389</v>
       </c>
       <c r="J34" t="n">
-        <v>-2271.530877960443</v>
+        <v>-6522.496137589855</v>
       </c>
       <c r="K34" t="n">
         <v>62.669998</v>
@@ -2396,19 +2396,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F35" t="n">
-        <v>19.7</v>
+        <v>49.8</v>
       </c>
       <c r="G35" t="n">
         <v>44.59399999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.375</v>
+        <v>41.508</v>
       </c>
       <c r="J35" t="n">
-        <v>-2191.05788556</v>
+        <v>-8324.574676673064</v>
       </c>
       <c r="K35" t="n">
         <v>62.84</v>
@@ -2464,7 +2464,7 @@
         <v>41.508</v>
       </c>
       <c r="J36" t="n">
-        <v>-3066.480426680049</v>
+        <v>-9228.262277710472</v>
       </c>
       <c r="K36" t="n">
         <v>63</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-8969.879766986076</v>
+        <v>-6890.583937633395</v>
       </c>
       <c r="K37" t="n">
         <v>62.799999</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-3885.93628072912</v>
+        <v>-5845.99309315103</v>
       </c>
       <c r="K38" t="n">
         <v>62.650002</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>40.773</v>
+        <v>45.906</v>
       </c>
       <c r="J39" t="n">
-        <v>-6000.957764019424</v>
+        <v>-5357.018236690168</v>
       </c>
       <c r="K39" t="n">
         <v>62.540001</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>40.773</v>
+        <v>45.906</v>
       </c>
       <c r="J40" t="n">
-        <v>-416.6475998843122</v>
+        <v>-3567.223236700275</v>
       </c>
       <c r="K40" t="n">
         <v>62.279999</v>
@@ -2744,7 +2744,7 @@
         <v>40.773</v>
       </c>
       <c r="J41" t="n">
-        <v>319.2071105406848</v>
+        <v>-1349.148883525932</v>
       </c>
       <c r="K41" t="n">
         <v>62.29999</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>41.118</v>
+        <v>46.001</v>
       </c>
       <c r="J42" t="n">
-        <v>-3992.980960745708</v>
+        <v>1491.372225762615</v>
       </c>
       <c r="K42" t="n">
         <v>62.2</v>
@@ -2853,10 +2853,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>41.118</v>
+        <v>46.001</v>
       </c>
       <c r="J43" t="n">
-        <v>1243.075240827667</v>
+        <v>2929.276133276334</v>
       </c>
       <c r="K43" t="n">
         <v>62.540001</v>
@@ -2900,19 +2900,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F44" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>43.2709999999999</v>
+        <v>46.905</v>
       </c>
       <c r="H44" t="n">
-        <v>47.5</v>
+        <v>49.8</v>
       </c>
       <c r="I44" t="n">
         <v>39.98699999999991</v>
       </c>
       <c r="J44" t="n">
-        <v>-2083.29545031</v>
+        <v>-1258.062032991312</v>
       </c>
       <c r="K44" t="n">
         <v>91.75</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>43.309</v>
+        <v>47.048</v>
       </c>
       <c r="H45" t="n">
         <v>49.8</v>
@@ -2968,7 +2968,7 @@
         <v>40.178</v>
       </c>
       <c r="J45" t="n">
-        <v>-1541.315039642151</v>
+        <v>-1197.986843049631</v>
       </c>
       <c r="K45" t="n">
         <v>106</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.309</v>
+        <v>47.048</v>
       </c>
       <c r="H46" t="n">
         <v>49.8</v>
@@ -3024,7 +3024,7 @@
         <v>40.178</v>
       </c>
       <c r="J46" t="n">
-        <v>-1176.14435748845</v>
+        <v>-1176.144357488447</v>
       </c>
       <c r="K46" t="n">
         <v>112.699997</v>
@@ -3065,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>43.309</v>
+        <v>46.99</v>
       </c>
       <c r="H47" t="n">
         <v>49.8</v>
@@ -3080,7 +3080,7 @@
         <v>41.11799999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>-1238.915145498545</v>
+        <v>-1238.915145498548</v>
       </c>
       <c r="K47" t="n">
         <v>109.970001</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>43.309</v>
+        <v>47.656</v>
       </c>
       <c r="H48" t="n">
         <v>49.8</v>
@@ -3192,7 +3192,7 @@
         <v>41.251</v>
       </c>
       <c r="J49" t="n">
-        <v>2990.402104085256</v>
+        <v>2990.402104085258</v>
       </c>
       <c r="K49" t="n">
         <v>91</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>44.435</v>
+        <v>48.123</v>
       </c>
       <c r="H50" t="n">
         <v>47.8</v>
@@ -3248,7 +3248,7 @@
         <v>41.58799999999991</v>
       </c>
       <c r="J50" t="n">
-        <v>-1222.676822656824</v>
+        <v>-1222.676822656827</v>
       </c>
       <c r="K50" t="n">
         <v>78.589996</v>
@@ -3342,10 +3342,10 @@
         <v>56</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2600000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>731.0718456411694</v>
+        <v>5025.092575465645</v>
       </c>
       <c r="K52" t="n">
         <v>62.139999</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>67.72</v>
+        <v>60.4</v>
       </c>
       <c r="D54" t="n">
         <v>49.8</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5068.785096744387</v>
+        <v>5068.785096744388</v>
       </c>
       <c r="K54" t="n">
         <v>62.99998</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>67.72</v>
+        <v>60.4</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>49.321</v>
+        <v>45.74000000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>2336.810676196206</v>
+        <v>2424.429812806766</v>
       </c>
       <c r="K55" t="n">
         <v>61.790001</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>67.72</v>
+        <v>60.4</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -3572,19 +3572,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F56" t="n">
-        <v>5.7</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="G56" t="n">
         <v>50.00999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>44.1</v>
+        <v>42.2</v>
       </c>
       <c r="I56" t="n">
         <v>45.74000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>-2338.5180624</v>
+        <v>-2341.335756635906</v>
       </c>
       <c r="K56" t="n">
         <v>61.509998</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>67.72</v>
+        <v>60.4</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -3628,19 +3628,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F57" t="n">
-        <v>27.4</v>
+        <v>26.4</v>
       </c>
       <c r="G57" t="n">
         <v>50.00999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>22.4</v>
+        <v>23.4</v>
       </c>
       <c r="I57" t="n">
         <v>45.74000000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>-2414.205843939998</v>
+        <v>-2409.916617609914</v>
       </c>
       <c r="K57" t="n">
         <v>74.639999</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>79.54000000000001</v>
+        <v>76.78</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -3684,19 +3684,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F58" t="n">
-        <v>44</v>
+        <v>49.8</v>
       </c>
       <c r="G58" t="n">
         <v>49.90199999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>5.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>45.74000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>-2466.17175118</v>
+        <v>-3376.317487691837</v>
       </c>
       <c r="K58" t="n">
         <v>62.669998</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>79.54000000000001</v>
+        <v>76.78</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>46.297</v>
+        <v>41.50799999999998</v>
       </c>
       <c r="J59" t="n">
-        <v>-4023.902365899978</v>
+        <v>-7359.645896130831</v>
       </c>
       <c r="K59" t="n">
         <v>62.84</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>79.54000000000001</v>
+        <v>76.78</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>46.297</v>
       </c>
       <c r="J60" t="n">
-        <v>-2728.837009949296</v>
+        <v>-9654.888360720042</v>
       </c>
       <c r="K60" t="n">
         <v>63</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>79.54000000000001</v>
+        <v>76.78</v>
       </c>
       <c r="D61" t="n">
         <v>49.8</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>-3869.263393862756</v>
+        <v>-8187.742871993218</v>
       </c>
       <c r="K61" t="n">
         <v>62.799999</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-5008.122483001142</v>
+        <v>-5972.21090367874</v>
       </c>
       <c r="K62" t="n">
         <v>62.650002</v>
@@ -3976,7 +3976,7 @@
         <v>45.846</v>
       </c>
       <c r="J63" t="n">
-        <v>-1366.374888487744</v>
+        <v>-6129.52306577358</v>
       </c>
       <c r="K63" t="n">
         <v>62.540001</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>45.846</v>
+        <v>39.79699999999997</v>
       </c>
       <c r="J64" t="n">
-        <v>-241.813249695468</v>
+        <v>-4179.875959768618</v>
       </c>
       <c r="K64" t="n">
         <v>62.279999</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>45.846</v>
+        <v>39.79699999999997</v>
       </c>
       <c r="J65" t="n">
-        <v>-705.1604503583222</v>
+        <v>-1520.070415249415</v>
       </c>
       <c r="K65" t="n">
         <v>62.29999</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>79.68000000000001</v>
+        <v>61.17</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>45.941</v>
+        <v>39.98699999999991</v>
       </c>
       <c r="J66" t="n">
-        <v>1205.177737213171</v>
+        <v>1962.023143992119</v>
       </c>
       <c r="K66" t="n">
         <v>62.2</v>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>79.68000000000001</v>
+        <v>61.17</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F67" t="n">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>43.30899999999991</v>
+        <v>46.905</v>
       </c>
       <c r="H67" t="n">
-        <v>29.7</v>
+        <v>49.8</v>
       </c>
       <c r="I67" t="n">
         <v>39.98699999999991</v>
       </c>
       <c r="J67" t="n">
-        <v>-2115.834918132962</v>
+        <v>-1289.245785904927</v>
       </c>
       <c r="K67" t="n">
         <v>62.540001</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>79.68000000000001</v>
+        <v>61.17</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>43.452</v>
+        <v>46.905</v>
       </c>
       <c r="H68" t="n">
         <v>49.8</v>
@@ -4256,7 +4256,7 @@
         <v>39.98699999999991</v>
       </c>
       <c r="J68" t="n">
-        <v>-2049.13544753798</v>
+        <v>-1185.427381442536</v>
       </c>
       <c r="K68" t="n">
         <v>91.75</v>
@@ -4291,19 +4291,19 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>79.68000000000001</v>
+        <v>61.17</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2500000000000002</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>43.452</v>
+        <v>47.048</v>
       </c>
       <c r="H69" t="n">
         <v>49.8</v>
@@ -4312,7 +4312,7 @@
         <v>40.178</v>
       </c>
       <c r="J69" t="n">
-        <v>-1243.642310498183</v>
+        <v>-1124.471240071326</v>
       </c>
       <c r="K69" t="n">
         <v>106</v>
@@ -4353,13 +4353,13 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2500000000000002</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>43.452</v>
+        <v>47.048</v>
       </c>
       <c r="H70" t="n">
         <v>49.8</v>
@@ -4409,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2500000000000002</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>43.452</v>
+        <v>46.99</v>
       </c>
       <c r="H71" t="n">
         <v>49.8</v>
@@ -4465,13 +4465,13 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2500000000000002</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>43.452</v>
+        <v>47.656</v>
       </c>
       <c r="H72" t="n">
         <v>49.8</v>
@@ -4480,7 +4480,7 @@
         <v>41.25099999999992</v>
       </c>
       <c r="J72" t="n">
-        <v>-1228.681562458027</v>
+        <v>-1228.681562458028</v>
       </c>
       <c r="K72" t="n">
         <v>106</v>
@@ -4536,7 +4536,7 @@
         <v>41.25099999999992</v>
       </c>
       <c r="J73" t="n">
-        <v>-1344.626164593242</v>
+        <v>-1344.626164593241</v>
       </c>
       <c r="K73" t="n">
         <v>91</v>
@@ -4592,7 +4592,7 @@
         <v>41.454</v>
       </c>
       <c r="J74" t="n">
-        <v>2928.534306504995</v>
+        <v>2928.534306504996</v>
       </c>
       <c r="K74" t="n">
         <v>65.29998999999999</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>4858.095914835934</v>
+        <v>4858.095914835933</v>
       </c>
       <c r="K75" t="n">
         <v>63.5</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>68.68000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="D78" t="n">
         <v>49.8</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>4749.6735412262</v>
+        <v>4749.673541226198</v>
       </c>
       <c r="K78" t="n">
         <v>64.230003</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>68.68000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -4872,7 +4872,7 @@
         <v>45.579</v>
       </c>
       <c r="J79" t="n">
-        <v>1645.65500097985</v>
+        <v>2223.160294634754</v>
       </c>
       <c r="K79" t="n">
         <v>66.449997</v>
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>68.68000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -4916,19 +4916,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F80" t="n">
-        <v>21</v>
+        <v>24.5</v>
       </c>
       <c r="G80" t="n">
         <v>50.00999999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>28.8</v>
+        <v>25.3</v>
       </c>
       <c r="I80" t="n">
         <v>44.39699999999999</v>
       </c>
       <c r="J80" t="n">
-        <v>-2381.058349020001</v>
+        <v>-2392.417512816628</v>
       </c>
       <c r="K80" t="n">
         <v>81.43000000000001</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>68.68000000000001</v>
+        <v>60.4</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -4972,19 +4972,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F81" t="n">
-        <v>33.6</v>
+        <v>49.8</v>
       </c>
       <c r="G81" t="n">
         <v>50.00999999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>44.39699999999999</v>
+        <v>49.367</v>
       </c>
       <c r="J81" t="n">
-        <v>-2430.302448959999</v>
+        <v>-2844.849369667601</v>
       </c>
       <c r="K81" t="n">
         <v>90</v>
@@ -5037,10 +5037,10 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>45.579</v>
+        <v>43.82599999999996</v>
       </c>
       <c r="J82" t="n">
-        <v>-6351.076140711429</v>
+        <v>-5749.225969760198</v>
       </c>
       <c r="K82" t="n">
         <v>94.980003</v>
@@ -5096,7 +5096,7 @@
         <v>41.375</v>
       </c>
       <c r="J83" t="n">
-        <v>-7134.770471838538</v>
+        <v>-9312.028486228875</v>
       </c>
       <c r="K83" t="n">
         <v>86.129997</v>
@@ -5149,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>41.375</v>
+        <v>46.819</v>
       </c>
       <c r="J84" t="n">
-        <v>-10039.42263409524</v>
+        <v>-7273.624976714754</v>
       </c>
       <c r="K84" t="n">
         <v>77.519997</v>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>-5354.481948930353</v>
+        <v>-3618.948686121923</v>
       </c>
       <c r="K85" t="n">
         <v>69.80002</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-4349.394886006982</v>
+        <v>-3616.734179410932</v>
       </c>
       <c r="K86" t="n">
         <v>64.739998</v>
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>40.773</v>
+        <v>46.724</v>
       </c>
       <c r="J87" t="n">
-        <v>-8154.924799881604</v>
+        <v>-4746.029377280751</v>
       </c>
       <c r="K87" t="n">
         <v>59.150002</v>
@@ -5373,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>40.773</v>
+        <v>46.724</v>
       </c>
       <c r="J88" t="n">
-        <v>-1264.740207422913</v>
+        <v>-2567.114465302378</v>
       </c>
       <c r="K88" t="n">
         <v>54.639999</v>
@@ -5429,10 +5429,10 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>40.773</v>
+        <v>46.724</v>
       </c>
       <c r="J89" t="n">
-        <v>-3466.957157538334</v>
+        <v>-327.4912042554659</v>
       </c>
       <c r="K89" t="n">
         <v>55.279999</v>
@@ -5488,7 +5488,7 @@
         <v>41.118</v>
       </c>
       <c r="J90" t="n">
-        <v>-1856.781127872266</v>
+        <v>1143.90156519957</v>
       </c>
       <c r="K90" t="n">
         <v>58.93</v>
@@ -5532,19 +5532,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F91" t="n">
-        <v>40.3</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>43.30899999999991</v>
+        <v>46.905</v>
       </c>
       <c r="H91" t="n">
-        <v>9.5</v>
+        <v>49.8</v>
       </c>
       <c r="I91" t="n">
         <v>39.89699999999999</v>
       </c>
       <c r="J91" t="n">
-        <v>-2182.741146023127</v>
+        <v>-1436.051372636517</v>
       </c>
       <c r="K91" t="n">
         <v>65.209999</v>
@@ -5588,19 +5588,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F92" t="n">
-        <v>9.700000000000001</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>43.30899999999991</v>
+        <v>43.452</v>
       </c>
       <c r="H92" t="n">
-        <v>40.1</v>
+        <v>49.8</v>
       </c>
       <c r="I92" t="n">
         <v>39.89699999999999</v>
       </c>
       <c r="J92" t="n">
-        <v>-2123.88594836</v>
+        <v>-1257.64154444665</v>
       </c>
       <c r="K92" t="n">
         <v>76.89995999999999</v>
@@ -5641,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2500000000000002</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>43.452</v>
+        <v>47.048</v>
       </c>
       <c r="H93" t="n">
         <v>49.8</v>
@@ -5656,7 +5656,7 @@
         <v>40.08699999999993</v>
       </c>
       <c r="J93" t="n">
-        <v>-1323.165271812248</v>
+        <v>-1196.567802240127</v>
       </c>
       <c r="K93" t="n">
         <v>82.959999</v>
@@ -5691,19 +5691,19 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>48.4</v>
+        <v>58</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2500000000000002</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>43.452</v>
+        <v>47.048</v>
       </c>
       <c r="H94" t="n">
         <v>49.8</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>48.4</v>
+        <v>58</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>43.452</v>
+        <v>46.99</v>
       </c>
       <c r="H95" t="n">
         <v>49.8</v>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>48.4</v>
+        <v>58</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>43.452</v>
+        <v>47.656</v>
       </c>
       <c r="H96" t="n">
         <v>49.8</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>48.4</v>
+        <v>58</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -5880,7 +5880,7 @@
         <v>41.08299999999991</v>
       </c>
       <c r="J97" t="n">
-        <v>-1407.14320806496</v>
+        <v>-1407.143208064959</v>
       </c>
       <c r="K97" t="n">
         <v>62.84</v>
@@ -5936,7 +5936,7 @@
         <v>41.588</v>
       </c>
       <c r="J98" t="n">
-        <v>2853.158201076702</v>
+        <v>2853.158201076701</v>
       </c>
       <c r="K98" t="n">
         <v>78.589996</v>
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>5005.271015362591</v>
+        <v>5002.210324988415</v>
       </c>
       <c r="K99" t="n">
         <v>62.23</v>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>4864.000555274762</v>
+        <v>4864.000555274763</v>
       </c>
       <c r="K101" t="n">
         <v>62.130001</v>
@@ -6213,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>45.74</v>
+        <v>49.321</v>
       </c>
       <c r="J103" t="n">
-        <v>1680.707755967103</v>
+        <v>2290.936215686761</v>
       </c>
       <c r="K103" t="n">
         <v>61.790001</v>
@@ -6260,19 +6260,19 @@
         <v>0.26</v>
       </c>
       <c r="F104" t="n">
-        <v>35.1</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="G104" t="n">
         <v>49.98099999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>14.7</v>
+        <v>43.2</v>
       </c>
       <c r="I104" t="n">
         <v>45.57900000000001</v>
       </c>
       <c r="J104" t="n">
-        <v>-2442.870271829997</v>
+        <v>-2345.748282567751</v>
       </c>
       <c r="K104" t="n">
         <v>61.509998</v>
@@ -6316,19 +6316,19 @@
         <v>0.26</v>
       </c>
       <c r="F105" t="n">
-        <v>49.8</v>
+        <v>15.8</v>
       </c>
       <c r="G105" t="n">
         <v>49.98099999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I105" t="n">
-        <v>45.74</v>
+        <v>45.57900000000001</v>
       </c>
       <c r="J105" t="n">
-        <v>-4297.063927258422</v>
+        <v>-2379.537848720001</v>
       </c>
       <c r="K105" t="n">
         <v>74.639999</v>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>69.23999999999999</v>
+        <v>64</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -6372,19 +6372,19 @@
         <v>0.26</v>
       </c>
       <c r="F106" t="n">
-        <v>49.8</v>
+        <v>45.40000000000001</v>
       </c>
       <c r="G106" t="n">
         <v>49.87399999999997</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="I106" t="n">
-        <v>45.74</v>
+        <v>45.57900000000001</v>
       </c>
       <c r="J106" t="n">
-        <v>-6572.613260193182</v>
+        <v>-2470.588632739999</v>
       </c>
       <c r="K106" t="n">
         <v>62.669998</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>69.23999999999999</v>
+        <v>64</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -6437,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>41.508</v>
+        <v>46.297</v>
       </c>
       <c r="J107" t="n">
-        <v>-5343.339106332764</v>
+        <v>-8282.102851237976</v>
       </c>
       <c r="K107" t="n">
         <v>62.84</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>69.23999999999999</v>
+        <v>64</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -6496,7 +6496,7 @@
         <v>41.508</v>
       </c>
       <c r="J108" t="n">
-        <v>-7654.414790497363</v>
+        <v>-10135.86946580397</v>
       </c>
       <c r="K108" t="n">
         <v>63</v>
@@ -6531,7 +6531,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>69.23999999999999</v>
+        <v>64</v>
       </c>
       <c r="D109" t="n">
         <v>49.8</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-3356.516503644052</v>
+        <v>-7537.978459351474</v>
       </c>
       <c r="K109" t="n">
         <v>62.799999</v>
@@ -6587,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>71</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="D110" t="n">
         <v>49.8</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>-4245.859093058388</v>
+        <v>-6529.14364069676</v>
       </c>
       <c r="K110" t="n">
         <v>62.650002</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>71</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -6661,10 +6661,10 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>40.773</v>
+        <v>45.846</v>
       </c>
       <c r="J111" t="n">
-        <v>-4944.014216418675</v>
+        <v>-5095.631340274986</v>
       </c>
       <c r="K111" t="n">
         <v>62.540001</v>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>71</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>40.773</v>
+        <v>45.846</v>
       </c>
       <c r="J112" t="n">
-        <v>-5981.86605051303</v>
+        <v>-4372.879661939392</v>
       </c>
       <c r="K112" t="n">
         <v>62.279999</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>71</v>
+        <v>67.23999999999999</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -6773,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>40.773</v>
+        <v>45.846</v>
       </c>
       <c r="J113" t="n">
-        <v>-5925.882041786138</v>
+        <v>-1924.898502641145</v>
       </c>
       <c r="K113" t="n">
         <v>62.29999</v>
@@ -6829,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>41.118</v>
+        <v>45.941</v>
       </c>
       <c r="J114" t="n">
-        <v>-2802.253371261802</v>
+        <v>1309.884930100381</v>
       </c>
       <c r="K114" t="n">
         <v>62.2</v>
@@ -6885,10 +6885,10 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>41.118</v>
+        <v>39.98699999999991</v>
       </c>
       <c r="J115" t="n">
-        <v>375.7996840558628</v>
+        <v>3027.262517306094</v>
       </c>
       <c r="K115" t="n">
         <v>62.540001</v>
@@ -6932,19 +6932,19 @@
         <v>0.26</v>
       </c>
       <c r="F116" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>43.2709999999999</v>
+        <v>46.905</v>
       </c>
       <c r="H116" t="n">
-        <v>36.4</v>
+        <v>49.8</v>
       </c>
       <c r="I116" t="n">
         <v>39.98699999999991</v>
       </c>
       <c r="J116" t="n">
-        <v>-2156.5713026</v>
+        <v>-1264.456963479305</v>
       </c>
       <c r="K116" t="n">
         <v>91.75</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>47.048</v>
+        <v>43.2709999999999</v>
       </c>
       <c r="H117" t="n">
         <v>49.8</v>
@@ -7000,7 +7000,7 @@
         <v>40.178</v>
       </c>
       <c r="J117" t="n">
-        <v>-1400.410107498884</v>
+        <v>-1195.845596257052</v>
       </c>
       <c r="K117" t="n">
         <v>106</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>47.048</v>
+        <v>43.2709999999999</v>
       </c>
       <c r="H118" t="n">
         <v>49.8</v>
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>46.984</v>
+        <v>46.98400000000002</v>
       </c>
       <c r="H119" t="n">
         <v>49.8</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>43.2709999999999</v>
+        <v>47.65000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>49.8</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -7212,19 +7212,19 @@
         <v>0.26</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>49.8</v>
       </c>
       <c r="G121" t="n">
         <v>43.2709999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>49.8</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>41.11799999999999</v>
+        <v>41.251</v>
       </c>
       <c r="J121" t="n">
-        <v>-1374.729122864194</v>
+        <v>3233.727287067799</v>
       </c>
       <c r="K121" t="n">
         <v>91</v>
@@ -7265,13 +7265,13 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>48.099</v>
+        <v>48.123</v>
       </c>
       <c r="H122" t="n">
         <v>47.8</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -7374,10 +7374,10 @@
         <v>66</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -7392,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>770.2558984001147</v>
+        <v>5296.068928318748</v>
       </c>
       <c r="K124" t="n">
         <v>76.300003</v>
@@ -7430,7 +7430,7 @@
         <v>66</v>
       </c>
       <c r="D125" t="n">
-        <v>14.7</v>
+        <v>47.8</v>
       </c>
       <c r="E125" t="n">
         <v>0.13</v>
@@ -7448,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2090.663409692432</v>
+        <v>5129.205042277029</v>
       </c>
       <c r="K125" t="n">
         <v>71.279999</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>5252.827296435355</v>
+        <v>5254.265965684658</v>
       </c>
       <c r="K126" t="n">
         <v>70.33000199999999</v>
@@ -7545,13 +7545,13 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>49.999</v>
+        <v>50.039</v>
       </c>
       <c r="H127" t="n">
         <v>49.8</v>
@@ -7560,7 +7560,7 @@
         <v>45.57900000000001</v>
       </c>
       <c r="J127" t="n">
-        <v>-2127.423207719568</v>
+        <v>-1884.535183855101</v>
       </c>
       <c r="K127" t="n">
         <v>69.870003</v>
@@ -7601,22 +7601,22 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="F128" t="n">
-        <v>10.1</v>
+        <v>8.6</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>39.7</v>
+        <v>41.2</v>
       </c>
       <c r="I128" t="n">
         <v>45.57900000000001</v>
       </c>
       <c r="J128" t="n">
-        <v>-2229.88204922</v>
+        <v>-2244.423291919999</v>
       </c>
       <c r="K128" t="n">
         <v>71.300003</v>
@@ -7660,19 +7660,19 @@
         <v>0.26</v>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>31.5</v>
       </c>
       <c r="G129" t="n">
         <v>46.91899999999993</v>
       </c>
       <c r="H129" t="n">
-        <v>29.8</v>
+        <v>18.3</v>
       </c>
       <c r="I129" t="n">
         <v>45.57900000000001</v>
       </c>
       <c r="J129" t="n">
-        <v>-2371.802406946076</v>
+        <v>-2405.511237899999</v>
       </c>
       <c r="K129" t="n">
         <v>75.860001</v>
@@ -7704,10 +7704,10 @@
         <v>44429.33333333334</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>76</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -7716,19 +7716,19 @@
         <v>0.26</v>
       </c>
       <c r="F130" t="n">
-        <v>49.8</v>
+        <v>33.5</v>
       </c>
       <c r="G130" t="n">
         <v>46.91899999999993</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="I130" t="n">
-        <v>45.74</v>
+        <v>45.57900000000001</v>
       </c>
       <c r="J130" t="n">
-        <v>-3470.870423310027</v>
+        <v>-2381.233705549998</v>
       </c>
       <c r="K130" t="n">
         <v>78.300003</v>
@@ -7760,10 +7760,10 @@
         <v>44429.375</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>76</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -7772,19 +7772,19 @@
         <v>0.26</v>
       </c>
       <c r="F131" t="n">
-        <v>49.8</v>
+        <v>30.9</v>
       </c>
       <c r="G131" t="n">
         <v>46.91899999999993</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>16.9</v>
       </c>
       <c r="I131" t="n">
-        <v>41.508</v>
+        <v>41.375</v>
       </c>
       <c r="J131" t="n">
-        <v>-5292.111503648394</v>
+        <v>-2266.874623719999</v>
       </c>
       <c r="K131" t="n">
         <v>78.80999799999999</v>
@@ -7816,10 +7816,10 @@
         <v>44429.41666666666</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>76</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="D132" t="n">
         <v>0</v>
@@ -7828,19 +7828,19 @@
         <v>0.26</v>
       </c>
       <c r="F132" t="n">
-        <v>49.8</v>
+        <v>35.5</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="I132" t="n">
-        <v>41.508</v>
+        <v>41.375</v>
       </c>
       <c r="J132" t="n">
-        <v>-10170.54572088331</v>
+        <v>-1858.424617003346</v>
       </c>
       <c r="K132" t="n">
         <v>75.529999</v>
@@ -7872,13 +7872,13 @@
         <v>44429.45833333334</v>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>76</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>49.8</v>
+        <v>33.6</v>
       </c>
       <c r="E133" t="n">
         <v>0.2</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>-8909.583568856746</v>
+        <v>-78.7843</v>
       </c>
       <c r="K133" t="n">
         <v>72.29998999999999</v>
@@ -7934,7 +7934,7 @@
         <v>67</v>
       </c>
       <c r="D134" t="n">
-        <v>47.8</v>
+        <v>18.3</v>
       </c>
       <c r="E134" t="n">
         <v>0.2</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>-8532.806022873174</v>
+        <v>-87.36099250000001</v>
       </c>
       <c r="K134" t="n">
         <v>70.300003</v>
@@ -7996,19 +7996,19 @@
         <v>0.26</v>
       </c>
       <c r="F135" t="n">
-        <v>47.8</v>
+        <v>16.3</v>
       </c>
       <c r="G135" t="n">
         <v>47.19</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="I135" t="n">
-        <v>40.777</v>
+        <v>39.79699999999997</v>
       </c>
       <c r="J135" t="n">
-        <v>-9735.234487978303</v>
+        <v>-1977.066243798259</v>
       </c>
       <c r="K135" t="n">
         <v>64.40000999999999</v>
@@ -8064,7 +8064,7 @@
         <v>40.777</v>
       </c>
       <c r="J136" t="n">
-        <v>-9082.133071456872</v>
+        <v>1078.713257901079</v>
       </c>
       <c r="K136" t="n">
         <v>63.99998</v>
@@ -8117,10 +8117,10 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>40.777</v>
+        <v>45.846</v>
       </c>
       <c r="J137" t="n">
-        <v>-6865.290903715687</v>
+        <v>2259.040996451582</v>
       </c>
       <c r="K137" t="n">
         <v>65.10002</v>
@@ -8155,7 +8155,7 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>73.79000000000001</v>
+        <v>63.03999999999996</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -8173,10 +8173,10 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>41.118</v>
+        <v>45.941</v>
       </c>
       <c r="J138" t="n">
-        <v>-5167.126257966783</v>
+        <v>2477.779177621988</v>
       </c>
       <c r="K138" t="n">
         <v>68.910004</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>73.79000000000001</v>
+        <v>63.03999999999996</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -8220,19 +8220,19 @@
         <v>0.26</v>
       </c>
       <c r="F139" t="n">
-        <v>46.5</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>46.90499999999992</v>
+        <v>48.762</v>
       </c>
       <c r="H139" t="n">
-        <v>3.3</v>
+        <v>49.8</v>
       </c>
       <c r="I139" t="n">
         <v>39.98699999999991</v>
       </c>
       <c r="J139" t="n">
-        <v>-2343.030394590001</v>
+        <v>-1319.48023910755</v>
       </c>
       <c r="K139" t="n">
         <v>77.720001</v>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>73.79000000000001</v>
+        <v>63.03999999999996</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -8276,19 +8276,19 @@
         <v>0.26</v>
       </c>
       <c r="F140" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>46.90499999999992</v>
       </c>
       <c r="H140" t="n">
-        <v>39.40000000000001</v>
+        <v>49.8</v>
       </c>
       <c r="I140" t="n">
         <v>39.98699999999991</v>
       </c>
       <c r="J140" t="n">
-        <v>-2157.722346844508</v>
+        <v>-1260.412591500133</v>
       </c>
       <c r="K140" t="n">
         <v>85.7</v>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>73.79000000000001</v>
+        <v>63.03999999999996</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>49.622</v>
+        <v>47.048</v>
       </c>
       <c r="H141" t="n">
         <v>49.8</v>
@@ -8344,7 +8344,7 @@
         <v>40.11099999999999</v>
       </c>
       <c r="J141" t="n">
-        <v>-1423.637148462042</v>
+        <v>-1205.08351348135</v>
       </c>
       <c r="K141" t="n">
         <v>90.209999</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>49.622</v>
+        <v>47.048</v>
       </c>
       <c r="H142" t="n">
         <v>49.8</v>
@@ -8441,13 +8441,13 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.1999999999994539</v>
+        <v>0.2599999999992901</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
       </c>
       <c r="G143" t="n">
-        <v>46.99</v>
+        <v>50.786</v>
       </c>
       <c r="H143" t="n">
         <v>49.8</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="F145" t="n">
         <v>49.8</v>
@@ -8565,10 +8565,10 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>41.251</v>
+        <v>46.455</v>
       </c>
       <c r="J145" t="n">
-        <v>2864.26324475682</v>
+        <v>2871.177762265319</v>
       </c>
       <c r="K145" t="n">
         <v>61.49999</v>
@@ -8612,19 +8612,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>47.8</v>
       </c>
       <c r="G146" t="n">
-        <v>48.099</v>
+        <v>44.28699999999998</v>
       </c>
       <c r="H146" t="n">
-        <v>47.8</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>41.41899999999993</v>
+        <v>41.462</v>
       </c>
       <c r="J146" t="n">
-        <v>-1316.455540823235</v>
+        <v>3133.101264535327</v>
       </c>
       <c r="K146" t="n">
         <v>80.80002</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>4871.007390394151</v>
+        <v>4871.007390394148</v>
       </c>
       <c r="K149" t="n">
         <v>72.16999800000001</v>
@@ -8824,13 +8824,13 @@
         <v>44430.16666666666</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>65</v>
+        <v>69.32000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="E150" t="n">
         <v>0.2000000000000002</v>
@@ -8848,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>4867.294061199097</v>
+        <v>5024.828466818713</v>
       </c>
       <c r="K150" t="n">
         <v>71.19996999999999</v>
@@ -8880,10 +8880,10 @@
         <v>44430.20833333334</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>65</v>
+        <v>69.32000000000001</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -8892,19 +8892,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>49.99900000000002</v>
       </c>
       <c r="H151" t="n">
-        <v>46.8</v>
+        <v>49.8</v>
       </c>
       <c r="I151" t="n">
         <v>44.39699999999999</v>
       </c>
       <c r="J151" t="n">
-        <v>-2305.248376096544</v>
+        <v>-2019.263480470298</v>
       </c>
       <c r="K151" t="n">
         <v>76.19996999999999</v>
@@ -8936,10 +8936,10 @@
         <v>44430.25</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>65</v>
+        <v>69.32000000000001</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -8948,19 +8948,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F152" t="n">
-        <v>31.5</v>
+        <v>29.8</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>16.3</v>
+        <v>20</v>
       </c>
       <c r="I152" t="n">
         <v>44.39699999999999</v>
       </c>
       <c r="J152" t="n">
-        <v>-2040.61892221</v>
+        <v>-2080.341228546807</v>
       </c>
       <c r="K152" t="n">
         <v>91.150002</v>
@@ -8992,10 +8992,10 @@
         <v>44430.29166666666</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>65</v>
+        <v>69.32000000000001</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F153" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="G153" t="n">
         <v>47.60699999999991</v>
@@ -9013,10 +9013,10 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>45.588</v>
+        <v>49.341</v>
       </c>
       <c r="J153" t="n">
-        <v>-4796.049334635627</v>
+        <v>-4974.24763679268</v>
       </c>
       <c r="K153" t="n">
         <v>99.91999800000001</v>
@@ -9048,10 +9048,10 @@
         <v>44430.33333333334</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -9060,7 +9060,7 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F154" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="G154" t="n">
         <v>47.60699999999991</v>
@@ -9069,10 +9069,10 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>45.588</v>
+        <v>48.433</v>
       </c>
       <c r="J154" t="n">
-        <v>-8529.696432810721</v>
+        <v>-8037.473281335514</v>
       </c>
       <c r="K154" t="n">
         <v>100.980003</v>
@@ -9104,10 +9104,10 @@
         <v>44430.375</v>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -9116,7 +9116,7 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F155" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="G155" t="n">
         <v>44.63200000000001</v>
@@ -9128,7 +9128,7 @@
         <v>41.383</v>
       </c>
       <c r="J155" t="n">
-        <v>-10775.49304976456</v>
+        <v>-10179.22009783351</v>
       </c>
       <c r="K155" t="n">
         <v>89.269997</v>
@@ -9160,10 +9160,10 @@
         <v>44430.41666666666</v>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F156" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>41.383</v>
+        <v>46.31</v>
       </c>
       <c r="J156" t="n">
-        <v>-5945.965965357766</v>
+        <v>-10331.59088738288</v>
       </c>
       <c r="K156" t="n">
         <v>84.80002</v>
@@ -9216,13 +9216,13 @@
         <v>44430.45833333334</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D157" t="n">
-        <v>47.8</v>
+        <v>49.8</v>
       </c>
       <c r="E157" t="n">
         <v>0.2000000000000002</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>-10353.03110899628</v>
+        <v>-7742.321262968941</v>
       </c>
       <c r="K157" t="n">
         <v>83.66999800000001</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>-10574.21407296686</v>
+        <v>-7499.271872392324</v>
       </c>
       <c r="K158" t="n">
         <v>83</v>
@@ -9349,10 +9349,10 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>40.777</v>
+        <v>45.859</v>
       </c>
       <c r="J159" t="n">
-        <v>-10822.5692651487</v>
+        <v>-5297.505143182172</v>
       </c>
       <c r="K159" t="n">
         <v>79.43000000000001</v>
@@ -9405,10 +9405,10 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>40.777</v>
+        <v>45.859</v>
       </c>
       <c r="J160" t="n">
-        <v>-9011.174938159947</v>
+        <v>-2724.951497937917</v>
       </c>
       <c r="K160" t="n">
         <v>78</v>
@@ -9461,10 +9461,10 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>40.777</v>
+        <v>39.70599999999996</v>
       </c>
       <c r="J161" t="n">
-        <v>-7041.987747380753</v>
+        <v>-378.8501720018621</v>
       </c>
       <c r="K161" t="n">
         <v>79.800003</v>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>73.79000000000001</v>
+        <v>76.86</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -9520,7 +9520,7 @@
         <v>41.063</v>
       </c>
       <c r="J162" t="n">
-        <v>-4480.031489280885</v>
+        <v>1731.665461006338</v>
       </c>
       <c r="K162" t="n">
         <v>82.860001</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>73.79000000000001</v>
+        <v>76.86</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -9573,10 +9573,10 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>41.063</v>
+        <v>39.89699999999999</v>
       </c>
       <c r="J163" t="n">
-        <v>-1852.206029107931</v>
+        <v>3054.647099925252</v>
       </c>
       <c r="K163" t="n">
         <v>92.75</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>73.79000000000001</v>
+        <v>76.86</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -9620,19 +9620,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F164" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>43.30899999999991</v>
+        <v>46.905</v>
       </c>
       <c r="H164" t="n">
-        <v>40.7</v>
+        <v>49.8</v>
       </c>
       <c r="I164" t="n">
         <v>39.89699999999999</v>
       </c>
       <c r="J164" t="n">
-        <v>-2173.60485636</v>
+        <v>-1283.059774216304</v>
       </c>
       <c r="K164" t="n">
         <v>101.440002</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>73.79000000000001</v>
+        <v>76.86</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>40.08699999999993</v>
       </c>
       <c r="J165" t="n">
-        <v>-1380.957753428842</v>
+        <v>-1197.720592439671</v>
       </c>
       <c r="K165" t="n">
         <v>111.940002</v>
@@ -9723,13 +9723,13 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>56</v>
+        <v>42.16</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.2500000000000002</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>56</v>
+        <v>42.16</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -9791,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>46.968</v>
+        <v>50.468</v>
       </c>
       <c r="H167" t="n">
         <v>49.8</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>56</v>
+        <v>42.16</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>47.633</v>
+        <v>47.348</v>
       </c>
       <c r="H168" t="n">
         <v>49.8</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>56</v>
+        <v>42.16</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -9900,19 +9900,19 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G169" t="n">
-        <v>47.633</v>
+        <v>43.30899999999991</v>
       </c>
       <c r="H169" t="n">
-        <v>49.8</v>
+        <v>37.8</v>
       </c>
       <c r="I169" t="n">
         <v>41.08299999999991</v>
       </c>
       <c r="J169" t="n">
-        <v>-1391.62189253628</v>
+        <v>-247.6843315234921</v>
       </c>
       <c r="K169" t="n">
         <v>81.41999800000001</v>
